--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1137,7 +1137,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterInicioLE}
+    <t xml:space="preserve">Encounter {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterIniciarLE}
 </t>
   </si>
   <si>
@@ -1374,7 +1374,7 @@
     <t>Bundle.entry:conditionDiagnostico.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionInicioDiagnosticoLE}
+    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarDiagnosticoLE}
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioIndiceComorbilidadLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarIndiceComorbilidadLE}
 </t>
   </si>
   <si>
@@ -1622,7 +1622,7 @@
     <t>Bundle.entry:observationDiscapacidad.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioDiscapacidadLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarDiscapacidadLE}
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
     <t>Bundle.entry:observationCuidador.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioCuidadorLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarCuidadorLE}
 </t>
   </si>
   <si>
@@ -1834,7 +1834,7 @@
     <t>Bundle.entry:conditionGes.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionInicioGesLE}
+    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarGesLE}
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
     <t>Bundle.entry:observation.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarLE}
 </t>
   </si>
   <si>
@@ -2053,7 +2053,7 @@
 IntoleranceAdverse Reaction</t>
   </si>
   <si>
-    <t xml:space="preserve">AllergyIntolerance {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/AllergyIntoleranceInicioLE}
+    <t xml:space="preserve">AllergyIntolerance {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/AllergyIntoleranceIniciarLE}
 </t>
   </si>
   <si>
@@ -2524,7 +2524,7 @@
     <t>Bundle.entry:docCuidador.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceInicioLE}
+    <t xml:space="preserve">DocumentReference {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceIniciarLE}
 </t>
   </si>
   <si>
@@ -2645,7 +2645,7 @@
     <t>Bundle.entry:prevision.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Coverage {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageInicioLE}
+    <t xml:space="preserve">Coverage {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageIniciarLE}
 </t>
   </si>
   <si>
@@ -2767,7 +2767,7 @@
 QuestionnaireAnswers</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/QuestionnaireResponseInicioLE}
+    <t xml:space="preserve">QuestionnaireResponse {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/QuestionnaireResponseIniciarLE}
 </t>
   </si>
   <si>
@@ -3213,7 +3213,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="113.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1374,7 +1374,7 @@
     <t>Bundle.entry:conditionDiagnostico.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarDiagnosticoLE}
+    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionDiagnosticoLE}
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
     <t>Bundle.entry:observation.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarLE}
+    <t xml:space="preserve">Observation {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExamenesAnteriores}
 </t>
   </si>
   <si>
@@ -2645,7 +2645,7 @@
     <t>Bundle.entry:prevision.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Coverage {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageIniciarLE}
+    <t xml:space="preserve">Coverage {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageLE}
 </t>
   </si>
   <si>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$593</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$561</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21176" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20035" uniqueCount="890">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2495,127 +2495,6 @@
   </si>
   <si>
     <t>Bundle.entry:organization.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador</t>
-  </si>
-  <si>
-    <t>docCuidador</t>
-  </si>
-  <si>
-    <t>Entrada en el Bundle: contendrá un recurso DocumentReference</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocumentReference {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceIniciarLE}
-</t>
-  </si>
-  <si>
-    <t>Documento que acredita que el paciente es cuidador.</t>
-  </si>
-  <si>
-    <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
-  </si>
-  <si>
-    <t>Usually, this is used for documents other than those defined by FHIR.</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN"]</t>
-  </si>
-  <si>
-    <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:docCuidador.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:prevision</t>
@@ -3194,7 +3073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN593"/>
+  <dimension ref="A1:AN561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -60224,7 +60103,7 @@
         <v>818</v>
       </c>
       <c r="AM503" t="s" s="2">
-        <v>819</v>
+        <v>77</v>
       </c>
       <c r="AN503" t="s" s="2">
         <v>77</v>
@@ -60232,7 +60111,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>197</v>
@@ -60344,7 +60223,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>201</v>
@@ -60456,7 +60335,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>202</v>
@@ -60570,7 +60449,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>203</v>
@@ -60686,7 +60565,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>204</v>
@@ -60800,7 +60679,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>210</v>
@@ -60914,7 +60793,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>215</v>
@@ -61026,7 +60905,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>219</v>
@@ -61138,7 +61017,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>220</v>
@@ -61252,7 +61131,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>221</v>
@@ -61368,7 +61247,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>222</v>
@@ -61480,7 +61359,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>227</v>
@@ -61594,7 +61473,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>231</v>
@@ -61706,7 +61585,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>234</v>
@@ -61818,7 +61697,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>236</v>
@@ -61930,7 +61809,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>239</v>
@@ -62042,7 +61921,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>242</v>
@@ -62154,7 +62033,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>246</v>
@@ -62266,7 +62145,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>247</v>
@@ -62380,7 +62259,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>248</v>
@@ -62496,7 +62375,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>249</v>
@@ -62608,7 +62487,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>252</v>
@@ -62720,7 +62599,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>255</v>
@@ -62834,7 +62713,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>259</v>
@@ -62948,7 +62827,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>263</v>
@@ -63062,13 +62941,13 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B529" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D529" t="s" s="2">
         <v>77</v>
@@ -63093,7 +62972,7 @@
         <v>145</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M529" t="s" s="2">
         <v>179</v>
@@ -63176,7 +63055,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B530" t="s" s="2">
         <v>183</v>
@@ -63288,7 +63167,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B531" t="s" s="2">
         <v>184</v>
@@ -63402,7 +63281,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B532" t="s" s="2">
         <v>185</v>
@@ -63518,7 +63397,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B533" t="s" s="2">
         <v>186</v>
@@ -63630,7 +63509,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B534" t="s" s="2">
         <v>189</v>
@@ -63744,14 +63623,14 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B535" t="s" s="2">
         <v>193</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" t="s" s="2">
-        <v>77</v>
+        <v>853</v>
       </c>
       <c r="E535" s="2"/>
       <c r="F535" t="s" s="2">
@@ -66691,11 +66570,9 @@
         <v>884</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C561" t="s" s="2">
-        <v>885</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="C561" s="2"/>
       <c r="D561" t="s" s="2">
         <v>77</v>
       </c>
@@ -66716,16 +66593,20 @@
         <v>88</v>
       </c>
       <c r="K561" t="s" s="2">
-        <v>145</v>
+        <v>885</v>
       </c>
       <c r="L561" t="s" s="2">
         <v>886</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N561" s="2"/>
-      <c r="O561" s="2"/>
+        <v>887</v>
+      </c>
+      <c r="N561" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="O561" t="s" s="2">
+        <v>889</v>
+      </c>
       <c r="P561" t="s" s="2">
         <v>77</v>
       </c>
@@ -66773,19 +66654,19 @@
         <v>77</v>
       </c>
       <c r="AF561" t="s" s="2">
-        <v>175</v>
+        <v>884</v>
       </c>
       <c r="AG561" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH561" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI561" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ561" t="s" s="2">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="AK561" t="s" s="2">
         <v>77</v>
@@ -66797,3639 +66678,11 @@
         <v>77</v>
       </c>
       <c r="AN561" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="562" hidden="true">
-      <c r="A562" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="B562" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C562" s="2"/>
-      <c r="D562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E562" s="2"/>
-      <c r="F562" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G562" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K562" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L562" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M562" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N562" s="2"/>
-      <c r="O562" s="2"/>
-      <c r="P562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q562" s="2"/>
-      <c r="R562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF562" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG562" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH562" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL562" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM562" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN562" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="563" hidden="true">
-      <c r="A563" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="B563" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C563" s="2"/>
-      <c r="D563" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E563" s="2"/>
-      <c r="F563" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G563" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K563" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L563" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M563" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N563" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O563" s="2"/>
-      <c r="P563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q563" s="2"/>
-      <c r="R563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH563" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ563" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL563" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM563" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN563" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="564" hidden="true">
-      <c r="A564" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="B564" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C564" s="2"/>
-      <c r="D564" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E564" s="2"/>
-      <c r="F564" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G564" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I564" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J564" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K564" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L564" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M564" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N564" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O564" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q564" s="2"/>
-      <c r="R564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF564" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG564" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH564" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ564" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL564" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM564" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN564" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="565" hidden="true">
-      <c r="A565" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="B565" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C565" s="2"/>
-      <c r="D565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E565" s="2"/>
-      <c r="F565" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G565" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J565" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K565" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L565" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M565" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N565" s="2"/>
-      <c r="O565" s="2"/>
-      <c r="P565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q565" s="2"/>
-      <c r="R565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF565" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG565" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH565" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ565" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM565" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN565" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="566" hidden="true">
-      <c r="A566" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="B566" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C566" s="2"/>
-      <c r="D566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E566" s="2"/>
-      <c r="F566" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G566" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J566" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K566" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L566" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M566" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N566" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O566" s="2"/>
-      <c r="P566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q566" s="2"/>
-      <c r="R566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF566" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG566" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH566" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ566" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM566" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN566" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="567" hidden="true">
-      <c r="A567" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="B567" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C567" s="2"/>
-      <c r="D567" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="E567" s="2"/>
-      <c r="F567" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G567" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K567" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="L567" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M567" t="s" s="2">
-        <v>896</v>
-      </c>
-      <c r="N567" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O567" s="2"/>
-      <c r="P567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q567" s="2"/>
-      <c r="R567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF567" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG567" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH567" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ567" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AK567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL567" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="AM567" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN567" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="568" hidden="true">
-      <c r="A568" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="B568" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C568" s="2"/>
-      <c r="D568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E568" s="2"/>
-      <c r="F568" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G568" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J568" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K568" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L568" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M568" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N568" s="2"/>
-      <c r="O568" s="2"/>
-      <c r="P568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q568" s="2"/>
-      <c r="R568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF568" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG568" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH568" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI568" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AJ568" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM568" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN568" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="569" hidden="true">
-      <c r="A569" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="B569" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C569" s="2"/>
-      <c r="D569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E569" s="2"/>
-      <c r="F569" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G569" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K569" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L569" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M569" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N569" s="2"/>
-      <c r="O569" s="2"/>
-      <c r="P569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q569" s="2"/>
-      <c r="R569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF569" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG569" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH569" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL569" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM569" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN569" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="570" hidden="true">
-      <c r="A570" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="B570" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C570" s="2"/>
-      <c r="D570" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E570" s="2"/>
-      <c r="F570" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G570" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K570" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L570" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M570" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N570" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O570" s="2"/>
-      <c r="P570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q570" s="2"/>
-      <c r="R570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF570" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG570" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH570" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ570" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL570" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM570" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN570" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="571" hidden="true">
-      <c r="A571" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="B571" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C571" s="2"/>
-      <c r="D571" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E571" s="2"/>
-      <c r="F571" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G571" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I571" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J571" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K571" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L571" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M571" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N571" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O571" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q571" s="2"/>
-      <c r="R571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF571" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG571" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH571" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ571" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL571" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM571" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN571" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="572" hidden="true">
-      <c r="A572" t="s" s="2">
-        <v>903</v>
-      </c>
-      <c r="B572" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C572" s="2"/>
-      <c r="D572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E572" s="2"/>
-      <c r="F572" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G572" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J572" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K572" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L572" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M572" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N572" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O572" s="2"/>
-      <c r="P572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q572" s="2"/>
-      <c r="R572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X572" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y572" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z572" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF572" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG572" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH572" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ572" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM572" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN572" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="573" hidden="true">
-      <c r="A573" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="B573" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C573" s="2"/>
-      <c r="D573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E573" s="2"/>
-      <c r="F573" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G573" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J573" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K573" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="L573" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M573" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N573" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O573" s="2"/>
-      <c r="P573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q573" s="2"/>
-      <c r="R573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF573" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG573" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH573" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ573" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM573" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN573" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="574" hidden="true">
-      <c r="A574" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="B574" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C574" s="2"/>
-      <c r="D574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E574" s="2"/>
-      <c r="F574" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G574" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J574" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K574" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L574" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M574" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N574" s="2"/>
-      <c r="O574" s="2"/>
-      <c r="P574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q574" s="2"/>
-      <c r="R574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF574" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG574" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH574" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI574" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AJ574" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM574" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN574" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="575" hidden="true">
-      <c r="A575" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="B575" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C575" s="2"/>
-      <c r="D575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E575" s="2"/>
-      <c r="F575" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G575" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K575" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L575" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M575" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N575" s="2"/>
-      <c r="O575" s="2"/>
-      <c r="P575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q575" s="2"/>
-      <c r="R575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF575" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG575" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH575" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL575" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM575" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN575" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="576" hidden="true">
-      <c r="A576" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="B576" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C576" s="2"/>
-      <c r="D576" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E576" s="2"/>
-      <c r="F576" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G576" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K576" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L576" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M576" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N576" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O576" s="2"/>
-      <c r="P576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q576" s="2"/>
-      <c r="R576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF576" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG576" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH576" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ576" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL576" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM576" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN576" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="577" hidden="true">
-      <c r="A577" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="B577" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C577" s="2"/>
-      <c r="D577" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E577" s="2"/>
-      <c r="F577" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G577" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I577" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J577" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K577" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L577" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M577" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N577" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q577" s="2"/>
-      <c r="R577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF577" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG577" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH577" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ577" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL577" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM577" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN577" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="578" hidden="true">
-      <c r="A578" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="B578" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C578" s="2"/>
-      <c r="D578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E578" s="2"/>
-      <c r="F578" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G578" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J578" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K578" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L578" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M578" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N578" s="2"/>
-      <c r="O578" s="2"/>
-      <c r="P578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q578" s="2"/>
-      <c r="R578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X578" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y578" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z578" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AA578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF578" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG578" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH578" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ578" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM578" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN578" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="579" hidden="true">
-      <c r="A579" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="B579" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C579" s="2"/>
-      <c r="D579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E579" s="2"/>
-      <c r="F579" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G579" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J579" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K579" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L579" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M579" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N579" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O579" s="2"/>
-      <c r="P579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q579" s="2"/>
-      <c r="R579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF579" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG579" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH579" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ579" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM579" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN579" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="580" hidden="true">
-      <c r="A580" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="B580" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C580" s="2"/>
-      <c r="D580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E580" s="2"/>
-      <c r="F580" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G580" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J580" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K580" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L580" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M580" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N580" s="2"/>
-      <c r="O580" s="2"/>
-      <c r="P580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q580" s="2"/>
-      <c r="R580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF580" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG580" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH580" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ580" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM580" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN580" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="581" hidden="true">
-      <c r="A581" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="B581" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C581" s="2"/>
-      <c r="D581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E581" s="2"/>
-      <c r="F581" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G581" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J581" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K581" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L581" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M581" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N581" s="2"/>
-      <c r="O581" s="2"/>
-      <c r="P581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q581" s="2"/>
-      <c r="R581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF581" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG581" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH581" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ581" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM581" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN581" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="582" hidden="true">
-      <c r="A582" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="B582" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C582" s="2"/>
-      <c r="D582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E582" s="2"/>
-      <c r="F582" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G582" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J582" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K582" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L582" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M582" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N582" s="2"/>
-      <c r="O582" s="2"/>
-      <c r="P582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q582" s="2"/>
-      <c r="R582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF582" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG582" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH582" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ582" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM582" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN582" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="583" hidden="true">
-      <c r="A583" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B583" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C583" s="2"/>
-      <c r="D583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E583" s="2"/>
-      <c r="F583" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G583" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J583" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K583" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L583" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M583" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N583" s="2"/>
-      <c r="O583" s="2"/>
-      <c r="P583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q583" s="2"/>
-      <c r="R583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF583" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG583" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM583" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN583" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="584" hidden="true">
-      <c r="A584" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="B584" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C584" s="2"/>
-      <c r="D584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E584" s="2"/>
-      <c r="F584" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G584" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J584" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K584" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L584" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M584" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N584" s="2"/>
-      <c r="O584" s="2"/>
-      <c r="P584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q584" s="2"/>
-      <c r="R584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF584" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG584" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH584" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI584" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AJ584" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM584" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN584" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="585" hidden="true">
-      <c r="A585" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="B585" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C585" s="2"/>
-      <c r="D585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E585" s="2"/>
-      <c r="F585" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G585" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K585" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L585" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M585" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N585" s="2"/>
-      <c r="O585" s="2"/>
-      <c r="P585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q585" s="2"/>
-      <c r="R585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF585" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG585" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH585" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL585" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM585" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN585" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="586" hidden="true">
-      <c r="A586" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="B586" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C586" s="2"/>
-      <c r="D586" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E586" s="2"/>
-      <c r="F586" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G586" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K586" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L586" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M586" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N586" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O586" s="2"/>
-      <c r="P586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q586" s="2"/>
-      <c r="R586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF586" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG586" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH586" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ586" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL586" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM586" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN586" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="587" hidden="true">
-      <c r="A587" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="B587" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C587" s="2"/>
-      <c r="D587" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E587" s="2"/>
-      <c r="F587" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G587" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I587" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J587" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K587" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L587" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M587" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N587" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O587" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q587" s="2"/>
-      <c r="R587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF587" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG587" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH587" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ587" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL587" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM587" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN587" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="588" hidden="true">
-      <c r="A588" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="B588" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C588" s="2"/>
-      <c r="D588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E588" s="2"/>
-      <c r="F588" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G588" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J588" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K588" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L588" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M588" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N588" s="2"/>
-      <c r="O588" s="2"/>
-      <c r="P588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q588" s="2"/>
-      <c r="R588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF588" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG588" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH588" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ588" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM588" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN588" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="589" hidden="true">
-      <c r="A589" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="B589" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C589" s="2"/>
-      <c r="D589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E589" s="2"/>
-      <c r="F589" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G589" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J589" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K589" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L589" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M589" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N589" s="2"/>
-      <c r="O589" s="2"/>
-      <c r="P589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q589" s="2"/>
-      <c r="R589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF589" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG589" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH589" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ589" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM589" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN589" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="590" hidden="true">
-      <c r="A590" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="B590" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C590" s="2"/>
-      <c r="D590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E590" s="2"/>
-      <c r="F590" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G590" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J590" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K590" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L590" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M590" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N590" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O590" s="2"/>
-      <c r="P590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q590" s="2"/>
-      <c r="R590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF590" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AG590" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH590" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ590" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM590" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN590" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="591" hidden="true">
-      <c r="A591" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="B591" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C591" s="2"/>
-      <c r="D591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E591" s="2"/>
-      <c r="F591" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G591" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J591" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K591" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L591" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M591" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N591" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O591" s="2"/>
-      <c r="P591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q591" s="2"/>
-      <c r="R591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF591" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG591" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH591" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ591" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM591" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN591" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="592" hidden="true">
-      <c r="A592" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="B592" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C592" s="2"/>
-      <c r="D592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E592" s="2"/>
-      <c r="F592" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G592" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J592" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K592" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L592" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M592" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N592" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O592" s="2"/>
-      <c r="P592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q592" s="2"/>
-      <c r="R592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF592" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG592" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH592" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM592" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN592" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="593" hidden="true">
-      <c r="A593" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="B593" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="C593" s="2"/>
-      <c r="D593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E593" s="2"/>
-      <c r="F593" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G593" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J593" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K593" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="L593" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="M593" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="N593" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="O593" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="P593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q593" s="2"/>
-      <c r="R593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF593" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="AG593" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH593" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ593" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM593" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN593" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN593">
+  <autoFilter ref="A1:AN561">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -70439,7 +66692,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI592">
+  <conditionalFormatting sqref="A2:AI560">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20035" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20034" uniqueCount="888">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1813,112 +1813,6 @@
     <t>Bundle.entry:observationCuidador.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:conditionGes</t>
-  </si>
-  <si>
-    <t>conditionGes</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarGesLE}
-</t>
-  </si>
-  <si>
-    <t>Se indica si la Condición que especifica si es diagnostico factible de considerarse bajo GES</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:conditionGes.response.outcome</t>
-  </si>
-  <si>
     <t>Bundle.entry:ObservationResultadoExamen</t>
   </si>
   <si>
@@ -2509,7 +2403,7 @@
     <t>prevision</t>
   </si>
   <si>
-    <t>Entrada en el Bundle: contendrá un recurso Coverage</t>
+    <t>Entry in the bundle - will have a resource or information</t>
   </si>
   <si>
     <t>Bundle.entry:prevision.id</t>
@@ -2528,22 +2422,6 @@
   </si>
   <si>
     <t>Bundle.entry:prevision.resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageLE}
-</t>
-  </si>
-  <si>
-    <t>Información de la previsión del paciente</t>
-  </si>
-  <si>
-    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.</t>
-  </si>
-  <si>
-    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
-  </si>
-  <si>
-    <t>Coverage</t>
   </si>
   <si>
     <t>Bundle.entry:prevision.search</t>
@@ -2741,6 +2619,115 @@
   </si>
   <si>
     <t>Bundle.entry:motivoDerivacion.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen</t>
+  </si>
+  <si>
+    <t>SolicitudExamen</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: Solicitud Examen</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceRequest {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestExamenLE}
+</t>
+  </si>
+  <si>
+    <t>Solicitud de examen</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:SolicitudExamen.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -4058,7 +4045,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>
@@ -37589,7 +37576,7 @@
         <v>78</v>
       </c>
       <c r="G305" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>77</v>
@@ -37604,7 +37591,7 @@
         <v>145</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>428</v>
+        <v>582</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>178</v>
@@ -37687,7 +37674,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>182</v>
@@ -37799,7 +37786,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>183</v>
@@ -37913,7 +37900,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>184</v>
@@ -38029,7 +38016,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>185</v>
@@ -38141,7 +38128,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>188</v>
@@ -38255,14 +38242,14 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -38281,15 +38268,17 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N311" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
         <v>77</v>
@@ -38350,13 +38339,13 @@
         <v>77</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -38367,7 +38356,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>196</v>
@@ -38479,7 +38468,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>200</v>
@@ -38591,7 +38580,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>201</v>
@@ -38705,7 +38694,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>202</v>
@@ -38821,7 +38810,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>203</v>
@@ -38935,7 +38924,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>209</v>
@@ -39049,7 +39038,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>214</v>
@@ -39161,7 +39150,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>218</v>
@@ -39273,7 +39262,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>219</v>
@@ -39387,7 +39376,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>220</v>
@@ -39503,7 +39492,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>221</v>
@@ -39615,7 +39604,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>226</v>
@@ -39729,7 +39718,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>230</v>
@@ -39841,7 +39830,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>233</v>
@@ -39953,7 +39942,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>235</v>
@@ -40065,7 +40054,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>238</v>
@@ -40177,7 +40166,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>241</v>
@@ -40289,7 +40278,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>245</v>
@@ -40401,7 +40390,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>246</v>
@@ -40515,7 +40504,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>247</v>
@@ -40631,7 +40620,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>248</v>
@@ -40743,7 +40732,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>251</v>
@@ -40855,7 +40844,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>254</v>
@@ -40969,7 +40958,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>258</v>
@@ -41083,7 +41072,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>262</v>
@@ -41197,13 +41186,13 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -41228,7 +41217,7 @@
         <v>145</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>178</v>
@@ -41311,7 +41300,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>182</v>
@@ -41423,7 +41412,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>183</v>
@@ -41537,7 +41526,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>184</v>
@@ -41653,7 +41642,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>185</v>
@@ -41679,7 +41668,7 @@
         <v>88</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L341" t="s" s="2">
         <v>186</v>
@@ -41765,7 +41754,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>188</v>
@@ -41879,14 +41868,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>475</v>
+        <v>625</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41905,16 +41894,16 @@
         <v>77</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>478</v>
+        <v>628</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>479</v>
+        <v>629</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -41976,10 +41965,10 @@
         <v>77</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>480</v>
+        <v>630</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>482</v>
@@ -41993,7 +41982,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>196</v>
@@ -42105,7 +42094,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>200</v>
@@ -42217,7 +42206,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>201</v>
@@ -42331,7 +42320,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>202</v>
@@ -42447,7 +42436,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>203</v>
@@ -42561,7 +42550,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>209</v>
@@ -42675,7 +42664,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>214</v>
@@ -42787,7 +42776,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>218</v>
@@ -42899,7 +42888,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>219</v>
@@ -43013,7 +43002,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>220</v>
@@ -43129,7 +43118,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>221</v>
@@ -43241,7 +43230,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>226</v>
@@ -43355,7 +43344,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>230</v>
@@ -43467,7 +43456,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>233</v>
@@ -43579,7 +43568,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>235</v>
@@ -43691,7 +43680,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>238</v>
@@ -43803,7 +43792,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>241</v>
@@ -43915,7 +43904,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>245</v>
@@ -44027,7 +44016,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>246</v>
@@ -44141,7 +44130,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>247</v>
@@ -44257,7 +44246,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>248</v>
@@ -44369,7 +44358,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>251</v>
@@ -44481,7 +44470,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>254</v>
@@ -44595,7 +44584,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>258</v>
@@ -44709,7 +44698,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>262</v>
@@ -44823,20 +44812,20 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E369" s="2"/>
       <c r="F369" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>87</v>
@@ -44854,7 +44843,7 @@
         <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>178</v>
@@ -44937,7 +44926,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>182</v>
@@ -45049,7 +45038,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>183</v>
@@ -45163,7 +45152,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -45279,7 +45268,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>185</v>
@@ -45305,7 +45294,7 @@
         <v>88</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L373" t="s" s="2">
         <v>186</v>
@@ -45391,7 +45380,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>188</v>
@@ -45505,14 +45494,14 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>660</v>
+        <v>77</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45531,17 +45520,15 @@
         <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N375" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="N375" s="2"/>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
         <v>77</v>
@@ -45602,13 +45589,13 @@
         <v>77</v>
       </c>
       <c r="AJ375" t="s" s="2">
-        <v>665</v>
+        <v>278</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>77</v>
+        <v>668</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>482</v>
+        <v>669</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -45619,7 +45606,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>196</v>
@@ -45731,7 +45718,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>200</v>
@@ -45843,7 +45830,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>201</v>
@@ -45957,7 +45944,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>202</v>
@@ -46073,7 +46060,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>203</v>
@@ -46187,7 +46174,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>209</v>
@@ -46301,7 +46288,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>214</v>
@@ -46413,7 +46400,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>218</v>
@@ -46525,7 +46512,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>219</v>
@@ -46639,7 +46626,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>220</v>
@@ -46755,7 +46742,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>221</v>
@@ -46867,7 +46854,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>226</v>
@@ -46981,7 +46968,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>230</v>
@@ -47093,7 +47080,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>233</v>
@@ -47205,7 +47192,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>235</v>
@@ -47317,7 +47304,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>238</v>
@@ -47429,7 +47416,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>241</v>
@@ -47541,7 +47528,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>245</v>
@@ -47653,7 +47640,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>246</v>
@@ -47767,7 +47754,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>247</v>
@@ -47883,7 +47870,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>248</v>
@@ -47995,7 +47982,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>251</v>
@@ -48107,7 +48094,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>254</v>
@@ -48221,7 +48208,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>258</v>
@@ -48335,7 +48322,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>262</v>
@@ -48449,13 +48436,13 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>77</v>
@@ -48480,7 +48467,7 @@
         <v>145</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M401" t="s" s="2">
         <v>178</v>
@@ -48563,7 +48550,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>182</v>
@@ -48675,7 +48662,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>183</v>
@@ -48789,7 +48776,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>184</v>
@@ -48905,7 +48892,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>185</v>
@@ -48931,7 +48918,7 @@
         <v>88</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L405" t="s" s="2">
         <v>186</v>
@@ -49017,7 +49004,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>188</v>
@@ -49131,7 +49118,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>192</v>
@@ -49157,13 +49144,13 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
@@ -49229,10 +49216,10 @@
         <v>278</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>77</v>
@@ -49243,7 +49230,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>196</v>
@@ -49355,7 +49342,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>200</v>
@@ -49467,7 +49454,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>201</v>
@@ -49581,7 +49568,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>202</v>
@@ -49697,7 +49684,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>203</v>
@@ -49811,7 +49798,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>209</v>
@@ -49925,7 +49912,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>214</v>
@@ -50037,7 +50024,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>218</v>
@@ -50149,7 +50136,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>219</v>
@@ -50263,7 +50250,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>220</v>
@@ -50379,7 +50366,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>221</v>
@@ -50491,7 +50478,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>226</v>
@@ -50605,7 +50592,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>230</v>
@@ -50717,7 +50704,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>233</v>
@@ -50829,7 +50816,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>235</v>
@@ -50941,7 +50928,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>238</v>
@@ -51053,7 +51040,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>241</v>
@@ -51165,7 +51152,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>245</v>
@@ -51277,7 +51264,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>246</v>
@@ -51391,7 +51378,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>247</v>
@@ -51507,7 +51494,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>248</v>
@@ -51619,7 +51606,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>251</v>
@@ -51731,7 +51718,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>254</v>
@@ -51845,7 +51832,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>258</v>
@@ -51959,7 +51946,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>262</v>
@@ -52073,13 +52060,13 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>77</v>
@@ -52104,7 +52091,7 @@
         <v>145</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M433" t="s" s="2">
         <v>178</v>
@@ -52187,7 +52174,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>182</v>
@@ -52299,7 +52286,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>183</v>
@@ -52413,7 +52400,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>184</v>
@@ -52529,7 +52516,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>185</v>
@@ -52555,7 +52542,7 @@
         <v>88</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L437" t="s" s="2">
         <v>186</v>
@@ -52641,7 +52628,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>188</v>
@@ -52755,7 +52742,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>192</v>
@@ -52781,13 +52768,13 @@
         <v>77</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
@@ -52850,13 +52837,13 @@
         <v>77</v>
       </c>
       <c r="AJ439" t="s" s="2">
-        <v>278</v>
+        <v>744</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="AM439" t="s" s="2">
         <v>77</v>
@@ -52867,7 +52854,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>196</v>
@@ -52979,7 +52966,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>200</v>
@@ -53091,7 +53078,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>201</v>
@@ -53205,7 +53192,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>202</v>
@@ -53321,7 +53308,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>203</v>
@@ -53435,7 +53422,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>209</v>
@@ -53549,7 +53536,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>214</v>
@@ -53661,7 +53648,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>218</v>
@@ -53773,7 +53760,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>219</v>
@@ -53887,7 +53874,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>220</v>
@@ -54003,7 +53990,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>221</v>
@@ -54115,7 +54102,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>226</v>
@@ -54229,7 +54216,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>230</v>
@@ -54341,7 +54328,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>233</v>
@@ -54453,7 +54440,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>235</v>
@@ -54565,7 +54552,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>238</v>
@@ -54677,7 +54664,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>241</v>
@@ -54789,7 +54776,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>245</v>
@@ -54901,7 +54888,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>246</v>
@@ -55015,7 +55002,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>247</v>
@@ -55131,7 +55118,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>248</v>
@@ -55243,7 +55230,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>251</v>
@@ -55355,7 +55342,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>254</v>
@@ -55469,7 +55456,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>258</v>
@@ -55583,7 +55570,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>262</v>
@@ -55697,20 +55684,20 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D465" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E465" s="2"/>
       <c r="F465" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G465" t="s" s="2">
         <v>87</v>
@@ -55728,7 +55715,7 @@
         <v>145</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="M465" t="s" s="2">
         <v>178</v>
@@ -55811,7 +55798,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>182</v>
@@ -55923,7 +55910,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>183</v>
@@ -56037,7 +56024,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>184</v>
@@ -56153,7 +56140,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>185</v>
@@ -56179,7 +56166,7 @@
         <v>88</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L469" t="s" s="2">
         <v>186</v>
@@ -56265,7 +56252,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>188</v>
@@ -56379,7 +56366,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>192</v>
@@ -56402,16 +56389,16 @@
         <v>77</v>
       </c>
       <c r="J471" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>776</v>
+        <v>193</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>777</v>
+        <v>194</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>778</v>
+        <v>195</v>
       </c>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
@@ -56474,13 +56461,13 @@
         <v>77</v>
       </c>
       <c r="AJ471" t="s" s="2">
-        <v>779</v>
+        <v>77</v>
       </c>
       <c r="AK471" t="s" s="2">
-        <v>780</v>
+        <v>77</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>781</v>
+        <v>77</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>77</v>
@@ -56491,7 +56478,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>196</v>
@@ -56603,7 +56590,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>200</v>
@@ -56715,7 +56702,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>201</v>
@@ -56829,7 +56816,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>202</v>
@@ -56945,7 +56932,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>203</v>
@@ -57059,7 +57046,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>209</v>
@@ -57173,7 +57160,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>214</v>
@@ -57285,7 +57272,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>218</v>
@@ -57397,7 +57384,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>219</v>
@@ -57511,7 +57498,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>220</v>
@@ -57627,7 +57614,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>221</v>
@@ -57739,7 +57726,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>226</v>
@@ -57853,7 +57840,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>230</v>
@@ -57965,7 +57952,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>233</v>
@@ -58077,7 +58064,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>235</v>
@@ -58189,7 +58176,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>238</v>
@@ -58301,7 +58288,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>241</v>
@@ -58413,7 +58400,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>245</v>
@@ -58525,7 +58512,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>246</v>
@@ -58639,7 +58626,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>247</v>
@@ -58755,7 +58742,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>248</v>
@@ -58867,7 +58854,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>251</v>
@@ -58979,7 +58966,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>254</v>
@@ -59093,7 +59080,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>258</v>
@@ -59207,7 +59194,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>262</v>
@@ -59321,13 +59308,13 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D497" t="s" s="2">
         <v>77</v>
@@ -59352,7 +59339,7 @@
         <v>145</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M497" t="s" s="2">
         <v>178</v>
@@ -59435,7 +59422,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>182</v>
@@ -59547,7 +59534,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>183</v>
@@ -59661,7 +59648,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>184</v>
@@ -59777,7 +59764,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>185</v>
@@ -59803,7 +59790,7 @@
         <v>88</v>
       </c>
       <c r="K501" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L501" t="s" s="2">
         <v>186</v>
@@ -59889,7 +59876,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>188</v>
@@ -60003,14 +59990,14 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" t="s" s="2">
-        <v>77</v>
+        <v>815</v>
       </c>
       <c r="E503" s="2"/>
       <c r="F503" t="s" s="2">
@@ -62963,7 +62950,7 @@
         <v>78</v>
       </c>
       <c r="G529" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H529" t="s" s="2">
         <v>77</v>
@@ -63429,7 +63416,7 @@
         <v>88</v>
       </c>
       <c r="K533" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L533" t="s" s="2">
         <v>186</v>
@@ -63636,7 +63623,7 @@
       </c>
       <c r="C535" s="2"/>
       <c r="D535" t="s" s="2">
-        <v>855</v>
+        <v>315</v>
       </c>
       <c r="E535" s="2"/>
       <c r="F535" t="s" s="2">
@@ -63655,17 +63642,15 @@
         <v>77</v>
       </c>
       <c r="K535" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="L535" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="L535" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="M535" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="N535" t="s" s="2">
-        <v>859</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N535" s="2"/>
       <c r="O535" s="2"/>
       <c r="P535" t="s" s="2">
         <v>77</v>
@@ -63726,13 +63711,13 @@
         <v>77</v>
       </c>
       <c r="AJ535" t="s" s="2">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="AK535" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AL535" t="s" s="2">
-        <v>860</v>
+        <v>321</v>
       </c>
       <c r="AM535" t="s" s="2">
         <v>77</v>
@@ -63743,7 +63728,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B536" t="s" s="2">
         <v>196</v>
@@ -63855,7 +63840,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B537" t="s" s="2">
         <v>200</v>
@@ -63967,7 +63952,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B538" t="s" s="2">
         <v>201</v>
@@ -64081,7 +64066,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B539" t="s" s="2">
         <v>202</v>
@@ -64197,7 +64182,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B540" t="s" s="2">
         <v>203</v>
@@ -64311,7 +64296,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B541" t="s" s="2">
         <v>209</v>
@@ -64425,7 +64410,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B542" t="s" s="2">
         <v>214</v>
@@ -64537,7 +64522,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B543" t="s" s="2">
         <v>218</v>
@@ -64649,7 +64634,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B544" t="s" s="2">
         <v>219</v>
@@ -64763,7 +64748,7 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B545" t="s" s="2">
         <v>220</v>
@@ -64879,7 +64864,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>221</v>
@@ -64991,7 +64976,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>226</v>
@@ -65105,7 +65090,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>230</v>
@@ -65217,7 +65202,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>233</v>
@@ -65329,7 +65314,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>235</v>
@@ -65441,7 +65426,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>238</v>
@@ -65553,7 +65538,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>241</v>
@@ -65665,7 +65650,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>245</v>
@@ -65777,7 +65762,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>246</v>
@@ -65891,7 +65876,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>247</v>
@@ -66007,7 +65992,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>248</v>
@@ -66119,7 +66104,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>251</v>
@@ -66231,7 +66216,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>254</v>
@@ -66345,7 +66330,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>258</v>
@@ -66459,7 +66444,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>262</v>
@@ -66573,10 +66558,10 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" t="s" s="2">
@@ -66599,19 +66584,19 @@
         <v>88</v>
       </c>
       <c r="K561" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="L561" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M561" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="N561" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="O561" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="L561" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="M561" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="N561" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="O561" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="P561" t="s" s="2">
         <v>77</v>
@@ -66660,7 +66645,7 @@
         <v>77</v>
       </c>
       <c r="AF561" t="s" s="2">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="AG561" t="s" s="2">
         <v>78</v>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$529</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20034" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18894" uniqueCount="854">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2395,108 +2395,6 @@
   </si>
   <si>
     <t>Bundle.entry:organization.response.outcome</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision</t>
-  </si>
-  <si>
-    <t>prevision</t>
-  </si>
-  <si>
-    <t>Entry in the bundle - will have a resource or information</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.resource</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:prevision.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:motivoDerivacion</t>
@@ -3066,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN561"/>
+  <dimension ref="A1:AN529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9255,13 +9153,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -12879,13 +12777,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -16503,13 +16401,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -20127,13 +20025,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -23751,13 +23649,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>
@@ -27375,13 +27273,13 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>77</v>
@@ -31001,13 +30899,13 @@
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I247" t="s" s="2">
         <v>77</v>
@@ -34627,13 +34525,13 @@
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G279" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I279" t="s" s="2">
         <v>77</v>
@@ -38253,13 +38151,13 @@
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G311" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>77</v>
@@ -41879,13 +41777,13 @@
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G343" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H343" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I343" t="s" s="2">
         <v>77</v>
@@ -45505,13 +45403,13 @@
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G375" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I375" t="s" s="2">
         <v>77</v>
@@ -49129,13 +49027,13 @@
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G407" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H407" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I407" t="s" s="2">
         <v>77</v>
@@ -52753,13 +52651,13 @@
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G439" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H439" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I439" t="s" s="2">
         <v>77</v>
@@ -56373,34 +56271,36 @@
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s" s="2">
-        <v>77</v>
+        <v>781</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G471" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H471" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I471" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J471" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>193</v>
+        <v>782</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>194</v>
+        <v>783</v>
       </c>
       <c r="M471" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N471" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="N471" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="O471" s="2"/>
       <c r="P471" t="s" s="2">
         <v>77</v>
@@ -56461,13 +56361,13 @@
         <v>77</v>
       </c>
       <c r="AJ471" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK471" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL471" t="s" s="2">
-        <v>77</v>
+        <v>786</v>
       </c>
       <c r="AM471" t="s" s="2">
         <v>77</v>
@@ -56478,7 +56378,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>196</v>
@@ -56590,7 +56490,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>200</v>
@@ -56702,7 +56602,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>201</v>
@@ -56816,7 +56716,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>202</v>
@@ -56932,7 +56832,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>203</v>
@@ -57046,7 +56946,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>209</v>
@@ -57160,7 +57060,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>214</v>
@@ -57272,7 +57172,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B479" t="s" s="2">
         <v>218</v>
@@ -57384,7 +57284,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B480" t="s" s="2">
         <v>219</v>
@@ -57498,7 +57398,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B481" t="s" s="2">
         <v>220</v>
@@ -57614,7 +57514,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B482" t="s" s="2">
         <v>221</v>
@@ -57726,7 +57626,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B483" t="s" s="2">
         <v>226</v>
@@ -57840,7 +57740,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="B484" t="s" s="2">
         <v>230</v>
@@ -57952,7 +57852,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B485" t="s" s="2">
         <v>233</v>
@@ -58064,7 +57964,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B486" t="s" s="2">
         <v>235</v>
@@ -58176,7 +58076,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B487" t="s" s="2">
         <v>238</v>
@@ -58288,7 +58188,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>241</v>
@@ -58400,7 +58300,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B489" t="s" s="2">
         <v>245</v>
@@ -58512,7 +58412,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B490" t="s" s="2">
         <v>246</v>
@@ -58626,7 +58526,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B491" t="s" s="2">
         <v>247</v>
@@ -58742,7 +58642,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B492" t="s" s="2">
         <v>248</v>
@@ -58854,7 +58754,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B493" t="s" s="2">
         <v>251</v>
@@ -58966,7 +58866,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B494" t="s" s="2">
         <v>254</v>
@@ -59080,7 +58980,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B495" t="s" s="2">
         <v>258</v>
@@ -59194,7 +59094,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>262</v>
@@ -59308,13 +59208,13 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B497" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D497" t="s" s="2">
         <v>77</v>
@@ -59324,7 +59224,7 @@
         <v>78</v>
       </c>
       <c r="G497" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H497" t="s" s="2">
         <v>77</v>
@@ -59339,7 +59239,7 @@
         <v>145</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="M497" t="s" s="2">
         <v>178</v>
@@ -59422,7 +59322,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>182</v>
@@ -59534,7 +59434,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>183</v>
@@ -59648,7 +59548,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>184</v>
@@ -59764,7 +59664,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>185</v>
@@ -59876,7 +59776,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>188</v>
@@ -59990,24 +59890,24 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" t="s" s="2">
-        <v>815</v>
+        <v>315</v>
       </c>
       <c r="E503" s="2"/>
       <c r="F503" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G503" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H503" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I503" t="s" s="2">
         <v>77</v>
@@ -60016,17 +59916,15 @@
         <v>77</v>
       </c>
       <c r="K503" t="s" s="2">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="L503" t="s" s="2">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="M503" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="N503" t="s" s="2">
-        <v>819</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N503" s="2"/>
       <c r="O503" s="2"/>
       <c r="P503" t="s" s="2">
         <v>77</v>
@@ -60087,13 +59985,13 @@
         <v>77</v>
       </c>
       <c r="AJ503" t="s" s="2">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="AK503" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AL503" t="s" s="2">
-        <v>820</v>
+        <v>321</v>
       </c>
       <c r="AM503" t="s" s="2">
         <v>77</v>
@@ -60104,7 +60002,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>196</v>
@@ -60216,7 +60114,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>200</v>
@@ -60328,7 +60226,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>201</v>
@@ -60442,7 +60340,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>202</v>
@@ -60558,7 +60456,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>203</v>
@@ -60672,7 +60570,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>209</v>
@@ -60786,7 +60684,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>214</v>
@@ -60898,7 +60796,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>218</v>
@@ -61010,7 +60908,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>219</v>
@@ -61124,7 +61022,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>220</v>
@@ -61240,7 +61138,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>221</v>
@@ -61352,7 +61250,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>226</v>
@@ -61466,7 +61364,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>230</v>
@@ -61578,7 +61476,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>233</v>
@@ -61690,7 +61588,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>235</v>
@@ -61802,7 +61700,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>238</v>
@@ -61914,7 +61812,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>241</v>
@@ -62026,7 +61924,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B521" t="s" s="2">
         <v>245</v>
@@ -62138,7 +62036,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B522" t="s" s="2">
         <v>246</v>
@@ -62252,7 +62150,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B523" t="s" s="2">
         <v>247</v>
@@ -62368,7 +62266,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>248</v>
@@ -62480,7 +62378,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B525" t="s" s="2">
         <v>251</v>
@@ -62592,7 +62490,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B526" t="s" s="2">
         <v>254</v>
@@ -62706,7 +62604,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B527" t="s" s="2">
         <v>258</v>
@@ -62820,7 +62718,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B528" t="s" s="2">
         <v>262</v>
@@ -62934,14 +62832,12 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C529" t="s" s="2">
-        <v>847</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="C529" s="2"/>
       <c r="D529" t="s" s="2">
         <v>77</v>
       </c>
@@ -62950,7 +62846,7 @@
         <v>78</v>
       </c>
       <c r="G529" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H529" t="s" s="2">
         <v>77</v>
@@ -62962,16 +62858,20 @@
         <v>88</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>145</v>
+        <v>849</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N529" s="2"/>
-      <c r="O529" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="N529" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="O529" t="s" s="2">
+        <v>853</v>
+      </c>
       <c r="P529" t="s" s="2">
         <v>77</v>
       </c>
@@ -63019,19 +62919,19 @@
         <v>77</v>
       </c>
       <c r="AF529" t="s" s="2">
-        <v>175</v>
+        <v>848</v>
       </c>
       <c r="AG529" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH529" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI529" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ529" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK529" t="s" s="2">
         <v>77</v>
@@ -63043,3637 +62943,11 @@
         <v>77</v>
       </c>
       <c r="AN529" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="530" hidden="true">
-      <c r="A530" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="B530" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C530" s="2"/>
-      <c r="D530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E530" s="2"/>
-      <c r="F530" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G530" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K530" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L530" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M530" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N530" s="2"/>
-      <c r="O530" s="2"/>
-      <c r="P530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q530" s="2"/>
-      <c r="R530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF530" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG530" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH530" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL530" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM530" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN530" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="531" hidden="true">
-      <c r="A531" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="B531" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C531" s="2"/>
-      <c r="D531" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E531" s="2"/>
-      <c r="F531" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G531" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K531" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L531" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M531" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N531" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O531" s="2"/>
-      <c r="P531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q531" s="2"/>
-      <c r="R531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF531" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG531" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH531" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ531" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL531" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM531" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN531" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="532" hidden="true">
-      <c r="A532" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="B532" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C532" s="2"/>
-      <c r="D532" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E532" s="2"/>
-      <c r="F532" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G532" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I532" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J532" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K532" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L532" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M532" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N532" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O532" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q532" s="2"/>
-      <c r="R532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF532" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG532" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH532" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ532" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL532" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM532" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN532" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="533" hidden="true">
-      <c r="A533" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="B533" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C533" s="2"/>
-      <c r="D533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E533" s="2"/>
-      <c r="F533" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G533" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J533" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L533" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M533" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N533" s="2"/>
-      <c r="O533" s="2"/>
-      <c r="P533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q533" s="2"/>
-      <c r="R533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF533" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG533" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH533" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ533" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM533" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN533" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="534" hidden="true">
-      <c r="A534" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="B534" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C534" s="2"/>
-      <c r="D534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E534" s="2"/>
-      <c r="F534" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G534" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J534" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K534" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L534" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M534" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N534" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O534" s="2"/>
-      <c r="P534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q534" s="2"/>
-      <c r="R534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF534" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG534" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH534" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ534" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM534" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN534" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="535" hidden="true">
-      <c r="A535" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="B535" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C535" s="2"/>
-      <c r="D535" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="E535" s="2"/>
-      <c r="F535" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G535" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K535" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="L535" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="M535" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N535" s="2"/>
-      <c r="O535" s="2"/>
-      <c r="P535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q535" s="2"/>
-      <c r="R535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF535" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG535" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH535" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ535" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AK535" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AL535" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM535" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN535" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="536" hidden="true">
-      <c r="A536" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="B536" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C536" s="2"/>
-      <c r="D536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E536" s="2"/>
-      <c r="F536" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G536" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J536" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K536" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L536" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M536" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N536" s="2"/>
-      <c r="O536" s="2"/>
-      <c r="P536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q536" s="2"/>
-      <c r="R536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF536" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG536" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH536" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI536" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AJ536" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM536" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN536" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="537" hidden="true">
-      <c r="A537" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="B537" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C537" s="2"/>
-      <c r="D537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E537" s="2"/>
-      <c r="F537" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G537" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K537" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L537" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M537" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N537" s="2"/>
-      <c r="O537" s="2"/>
-      <c r="P537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q537" s="2"/>
-      <c r="R537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF537" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG537" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH537" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL537" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM537" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN537" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="538" hidden="true">
-      <c r="A538" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="B538" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C538" s="2"/>
-      <c r="D538" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E538" s="2"/>
-      <c r="F538" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G538" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K538" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L538" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M538" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N538" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O538" s="2"/>
-      <c r="P538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q538" s="2"/>
-      <c r="R538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF538" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG538" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH538" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ538" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL538" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM538" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN538" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="539" hidden="true">
-      <c r="A539" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="B539" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C539" s="2"/>
-      <c r="D539" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E539" s="2"/>
-      <c r="F539" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G539" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I539" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J539" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K539" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L539" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M539" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q539" s="2"/>
-      <c r="R539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF539" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG539" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH539" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ539" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL539" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM539" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN539" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="540" hidden="true">
-      <c r="A540" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="B540" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C540" s="2"/>
-      <c r="D540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E540" s="2"/>
-      <c r="F540" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G540" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J540" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K540" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L540" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M540" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N540" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O540" s="2"/>
-      <c r="P540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q540" s="2"/>
-      <c r="R540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X540" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y540" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z540" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF540" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG540" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH540" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ540" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM540" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN540" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="541" hidden="true">
-      <c r="A541" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="B541" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C541" s="2"/>
-      <c r="D541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E541" s="2"/>
-      <c r="F541" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G541" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J541" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K541" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L541" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M541" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O541" s="2"/>
-      <c r="P541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q541" s="2"/>
-      <c r="R541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF541" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG541" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH541" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ541" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM541" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN541" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="542" hidden="true">
-      <c r="A542" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="B542" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C542" s="2"/>
-      <c r="D542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E542" s="2"/>
-      <c r="F542" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G542" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J542" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K542" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L542" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M542" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N542" s="2"/>
-      <c r="O542" s="2"/>
-      <c r="P542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q542" s="2"/>
-      <c r="R542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF542" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG542" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH542" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI542" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AJ542" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM542" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN542" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="543" hidden="true">
-      <c r="A543" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="B543" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C543" s="2"/>
-      <c r="D543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E543" s="2"/>
-      <c r="F543" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G543" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K543" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L543" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M543" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N543" s="2"/>
-      <c r="O543" s="2"/>
-      <c r="P543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q543" s="2"/>
-      <c r="R543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF543" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG543" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH543" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL543" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM543" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN543" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="544" hidden="true">
-      <c r="A544" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="B544" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C544" s="2"/>
-      <c r="D544" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E544" s="2"/>
-      <c r="F544" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G544" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K544" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L544" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M544" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N544" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O544" s="2"/>
-      <c r="P544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q544" s="2"/>
-      <c r="R544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF544" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG544" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH544" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ544" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL544" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM544" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN544" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="545" hidden="true">
-      <c r="A545" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="B545" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C545" s="2"/>
-      <c r="D545" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E545" s="2"/>
-      <c r="F545" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G545" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I545" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J545" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K545" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L545" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M545" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q545" s="2"/>
-      <c r="R545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF545" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG545" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH545" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ545" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL545" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM545" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN545" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="546" hidden="true">
-      <c r="A546" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="B546" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C546" s="2"/>
-      <c r="D546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E546" s="2"/>
-      <c r="F546" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G546" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J546" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K546" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L546" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M546" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N546" s="2"/>
-      <c r="O546" s="2"/>
-      <c r="P546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q546" s="2"/>
-      <c r="R546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X546" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y546" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Z546" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AA546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF546" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG546" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH546" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ546" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM546" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN546" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="547" hidden="true">
-      <c r="A547" t="s" s="2">
-        <v>868</v>
-      </c>
-      <c r="B547" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C547" s="2"/>
-      <c r="D547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E547" s="2"/>
-      <c r="F547" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G547" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J547" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K547" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L547" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M547" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N547" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O547" s="2"/>
-      <c r="P547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q547" s="2"/>
-      <c r="R547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF547" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AG547" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH547" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ547" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM547" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN547" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="548" hidden="true">
-      <c r="A548" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="B548" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C548" s="2"/>
-      <c r="D548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E548" s="2"/>
-      <c r="F548" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G548" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J548" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K548" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L548" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M548" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N548" s="2"/>
-      <c r="O548" s="2"/>
-      <c r="P548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q548" s="2"/>
-      <c r="R548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF548" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AG548" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH548" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ548" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM548" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN548" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="549" hidden="true">
-      <c r="A549" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="B549" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C549" s="2"/>
-      <c r="D549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E549" s="2"/>
-      <c r="F549" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G549" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J549" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K549" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L549" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M549" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N549" s="2"/>
-      <c r="O549" s="2"/>
-      <c r="P549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q549" s="2"/>
-      <c r="R549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF549" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG549" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH549" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ549" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM549" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN549" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="550" hidden="true">
-      <c r="A550" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="B550" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C550" s="2"/>
-      <c r="D550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E550" s="2"/>
-      <c r="F550" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G550" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J550" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K550" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L550" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M550" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N550" s="2"/>
-      <c r="O550" s="2"/>
-      <c r="P550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q550" s="2"/>
-      <c r="R550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF550" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AG550" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH550" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ550" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM550" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN550" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="551" hidden="true">
-      <c r="A551" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="B551" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C551" s="2"/>
-      <c r="D551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E551" s="2"/>
-      <c r="F551" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G551" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J551" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K551" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L551" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M551" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N551" s="2"/>
-      <c r="O551" s="2"/>
-      <c r="P551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q551" s="2"/>
-      <c r="R551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF551" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG551" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH551" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ551" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM551" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN551" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="552" hidden="true">
-      <c r="A552" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="B552" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C552" s="2"/>
-      <c r="D552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E552" s="2"/>
-      <c r="F552" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G552" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J552" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K552" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L552" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M552" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N552" s="2"/>
-      <c r="O552" s="2"/>
-      <c r="P552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q552" s="2"/>
-      <c r="R552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF552" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG552" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH552" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI552" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AJ552" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM552" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN552" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="553" hidden="true">
-      <c r="A553" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="B553" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C553" s="2"/>
-      <c r="D553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E553" s="2"/>
-      <c r="F553" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G553" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K553" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L553" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M553" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N553" s="2"/>
-      <c r="O553" s="2"/>
-      <c r="P553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q553" s="2"/>
-      <c r="R553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF553" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG553" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH553" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL553" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM553" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN553" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="554" hidden="true">
-      <c r="A554" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="B554" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C554" s="2"/>
-      <c r="D554" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E554" s="2"/>
-      <c r="F554" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G554" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K554" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L554" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M554" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N554" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O554" s="2"/>
-      <c r="P554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q554" s="2"/>
-      <c r="R554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF554" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG554" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH554" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ554" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL554" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM554" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN554" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="555" hidden="true">
-      <c r="A555" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="B555" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C555" s="2"/>
-      <c r="D555" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E555" s="2"/>
-      <c r="F555" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G555" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I555" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J555" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K555" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L555" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M555" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N555" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O555" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q555" s="2"/>
-      <c r="R555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF555" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG555" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH555" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ555" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL555" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM555" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN555" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="556" hidden="true">
-      <c r="A556" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="B556" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C556" s="2"/>
-      <c r="D556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E556" s="2"/>
-      <c r="F556" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G556" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J556" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K556" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L556" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M556" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N556" s="2"/>
-      <c r="O556" s="2"/>
-      <c r="P556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q556" s="2"/>
-      <c r="R556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF556" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AG556" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH556" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ556" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM556" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN556" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="557" hidden="true">
-      <c r="A557" t="s" s="2">
-        <v>878</v>
-      </c>
-      <c r="B557" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C557" s="2"/>
-      <c r="D557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E557" s="2"/>
-      <c r="F557" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G557" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J557" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K557" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L557" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M557" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N557" s="2"/>
-      <c r="O557" s="2"/>
-      <c r="P557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q557" s="2"/>
-      <c r="R557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF557" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG557" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH557" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ557" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM557" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN557" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="558" hidden="true">
-      <c r="A558" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="B558" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C558" s="2"/>
-      <c r="D558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E558" s="2"/>
-      <c r="F558" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G558" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J558" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K558" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L558" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M558" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N558" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O558" s="2"/>
-      <c r="P558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q558" s="2"/>
-      <c r="R558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF558" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG558" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH558" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ558" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM558" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN558" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="559" hidden="true">
-      <c r="A559" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="B559" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C559" s="2"/>
-      <c r="D559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E559" s="2"/>
-      <c r="F559" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G559" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J559" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K559" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L559" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M559" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N559" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O559" s="2"/>
-      <c r="P559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q559" s="2"/>
-      <c r="R559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF559" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG559" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH559" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ559" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM559" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN559" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="560" hidden="true">
-      <c r="A560" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="B560" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C560" s="2"/>
-      <c r="D560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E560" s="2"/>
-      <c r="F560" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G560" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J560" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K560" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L560" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M560" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N560" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O560" s="2"/>
-      <c r="P560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q560" s="2"/>
-      <c r="R560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF560" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AG560" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH560" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM560" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN560" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="561" hidden="true">
-      <c r="A561" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="B561" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="C561" s="2"/>
-      <c r="D561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E561" s="2"/>
-      <c r="F561" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G561" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J561" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K561" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="L561" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="M561" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="N561" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="O561" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="P561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q561" s="2"/>
-      <c r="R561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF561" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="AG561" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH561" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ561" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM561" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN561" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN561">
+  <autoFilter ref="A1:AN529">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -66683,7 +62957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI560">
+  <conditionalFormatting sqref="A2:AI528">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
